--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/Discounted BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/Discounted BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2DBBEE-87BA-4076-AFFF-735F2387D2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5AD01F-420A-4C78-A175-F7F74DD556D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
   <si>
     <t>S. No.</t>
   </si>
@@ -1645,6 +1645,18 @@
       </rPr>
       <t>BILL OF QUANTITIES FOR FIRE SUPPRESSION SYSTEM WORKS</t>
     </r>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>FIRE</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mob 20%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1997,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2109,6 +2121,111 @@
     <xf numFmtId="43" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
@@ -2118,68 +2235,35 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2190,30 +2274,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,9 +2283,6 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2235,18 +2292,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2265,38 +2310,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2606,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2629,39 +2647,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="63" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="64"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2673,10 +2691,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2694,12 +2712,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -2756,12 +2774,12 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -2771,12 +2789,12 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
@@ -3343,12 +3361,12 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -3358,12 +3376,12 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -3900,12 +3918,12 @@
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -3915,12 +3933,12 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -4134,12 +4152,12 @@
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="46"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -4147,23 +4165,23 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:14" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="55"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="75"/>
     </row>
     <row r="59" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
       <c r="E59" s="34"/>
       <c r="F59" s="35">
         <f>SUM(F5:F56)</f>
@@ -4184,7 +4202,9 @@
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I62" s="9"/>
+      <c r="I62" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I63" s="9"/>
@@ -4192,7 +4212,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G64" s="9"/>
       <c r="H64" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="I64" s="9">
         <v>5750000</v>
@@ -4201,12 +4221,23 @@
     </row>
     <row r="65" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="H65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="9">
+        <v>2050000</v>
+      </c>
       <c r="L65" s="11"/>
     </row>
     <row r="66" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="H66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="9">
+        <f>SUM(I64:I65)</f>
+        <v>7800000</v>
+      </c>
       <c r="L66" s="12"/>
     </row>
     <row r="67" spans="7:12" x14ac:dyDescent="0.2">
@@ -4215,6 +4246,13 @@
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="9"/>
+      <c r="H68" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="105">
+        <f>I66*20%</f>
+        <v>1560000</v>
+      </c>
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
@@ -4232,6 +4270,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:I58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -4239,16 +4287,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4259,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575ABACB-5F9D-4B06-B65D-8E17CB415728}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
@@ -4282,39 +4320,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="68" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
@@ -4326,10 +4364,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
@@ -4347,12 +4385,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4360,33 +4398,33 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="72">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="43">
         <v>2</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="52">
         <v>21902.400000000001</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="52">
         <f>E5*C5</f>
         <v>43804.800000000003</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="52">
         <v>405.6</v>
       </c>
-      <c r="H5" s="98">
+      <c r="H5" s="52">
         <f>G5*C5</f>
         <v>811.2</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5" s="52">
         <f>H5+F5</f>
         <v>44616</v>
       </c>
@@ -4395,33 +4433,33 @@
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="72">
+      <c r="A6" s="41">
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="43">
         <v>4</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="52">
         <v>13182</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="52">
         <f>E6*C6</f>
         <v>52728</v>
       </c>
-      <c r="G6" s="98">
+      <c r="G6" s="52">
         <v>405.6</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="52">
         <f>G6*C6</f>
         <v>1622.4</v>
       </c>
-      <c r="I6" s="98">
+      <c r="I6" s="52">
         <f>H6+F6</f>
         <v>54350.400000000001</v>
       </c>
@@ -4430,65 +4468,65 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="L7" s="14"/>
       <c r="M7" s="1"/>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="L8" s="14"/>
       <c r="M8" s="1"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72">
+      <c r="A9" s="41">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="43">
         <v>10</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="52">
         <v>3447.6</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="52">
         <f t="shared" ref="F9:F10" si="0">E9*C9</f>
         <v>34476</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="52">
         <v>486.72</v>
       </c>
-      <c r="H9" s="98">
+      <c r="H9" s="52">
         <f t="shared" ref="H9:H10" si="1">G9*C9</f>
         <v>4867.2000000000007</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9" s="52">
         <f t="shared" ref="I9:I10" si="2">H9+F9</f>
         <v>39343.199999999997</v>
       </c>
@@ -4497,33 +4535,33 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="72">
+      <c r="A10" s="41">
         <v>2</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="43">
         <v>72</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="52">
         <v>2555.2799999999997</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="52">
         <f t="shared" si="0"/>
         <v>183980.15999999997</v>
       </c>
-      <c r="G10" s="98">
+      <c r="G10" s="52">
         <v>405.6</v>
       </c>
-      <c r="H10" s="98">
+      <c r="H10" s="52">
         <f t="shared" si="1"/>
         <v>29203.200000000001</v>
       </c>
-      <c r="I10" s="98">
+      <c r="I10" s="52">
         <f t="shared" si="2"/>
         <v>213183.35999999999</v>
       </c>
@@ -4532,83 +4570,83 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="L11" s="14"/>
       <c r="M11" s="1"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="L12" s="14"/>
       <c r="M12" s="1"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="72">
+      <c r="A13" s="41">
         <v>1</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
       <c r="L13" s="14"/>
       <c r="M13" s="1"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="43">
         <v>420</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="52">
         <v>527.28</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="52">
         <f t="shared" ref="F14:F19" si="3">E14*C14</f>
         <v>221457.59999999998</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="52">
         <v>121.68</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="52">
         <f t="shared" ref="H14:H19" si="4">G14*C14</f>
         <v>51105.600000000006</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="52">
         <f t="shared" ref="I14:I19" si="5">H14+F14</f>
         <v>272563.19999999995</v>
       </c>
@@ -4617,33 +4655,33 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="43">
         <v>160</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="52">
         <v>709.8</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="52">
         <f t="shared" si="3"/>
         <v>113568</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="52">
         <v>162.24</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="52">
         <f t="shared" si="4"/>
         <v>25958.400000000001</v>
       </c>
-      <c r="I15" s="98">
+      <c r="I15" s="52">
         <f t="shared" si="5"/>
         <v>139526.39999999999</v>
       </c>
@@ -4652,33 +4690,33 @@
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="43">
         <v>253</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="52">
         <v>803.08799999999997</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="52">
         <f t="shared" si="3"/>
         <v>203181.264</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="52">
         <v>202.8</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H16" s="52">
         <f t="shared" si="4"/>
         <v>51308.4</v>
       </c>
-      <c r="I16" s="98">
+      <c r="I16" s="52">
         <f t="shared" si="5"/>
         <v>254489.66399999999</v>
       </c>
@@ -4687,33 +4725,33 @@
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="43">
         <v>131</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="52">
         <v>1034.28</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="52">
         <f t="shared" si="3"/>
         <v>135490.68</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="52">
         <v>243.36</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="52">
         <f t="shared" si="4"/>
         <v>31880.160000000003</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="52">
         <f t="shared" si="5"/>
         <v>167370.84</v>
       </c>
@@ -4722,33 +4760,33 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="43">
         <v>29</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="52">
         <v>1472.328</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="52">
         <f t="shared" si="3"/>
         <v>42697.512000000002</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="52">
         <v>283.92</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="52">
         <f t="shared" si="4"/>
         <v>8233.68</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="52">
         <f t="shared" si="5"/>
         <v>50931.192000000003</v>
       </c>
@@ -4757,33 +4795,33 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="43">
         <v>127</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="52">
         <v>1922.5439999999999</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="52">
         <f t="shared" si="3"/>
         <v>244163.08799999999</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="52">
         <v>324.48</v>
       </c>
-      <c r="H19" s="98">
+      <c r="H19" s="52">
         <f t="shared" si="4"/>
         <v>41208.959999999999</v>
       </c>
-      <c r="I19" s="98">
+      <c r="I19" s="52">
         <f t="shared" si="5"/>
         <v>285372.04800000001</v>
       </c>
@@ -4792,55 +4830,55 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="72">
+      <c r="A20" s="41">
         <v>2</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="100">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="54">
         <v>0</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100">
+      <c r="F20" s="54"/>
+      <c r="G20" s="54">
         <v>0</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="L20" s="14"/>
       <c r="M20" s="1"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="43">
         <v>1</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="52">
         <v>47049.599999999999</v>
       </c>
-      <c r="F21" s="98">
+      <c r="F21" s="52">
         <f>E21*C21</f>
         <v>47049.599999999999</v>
       </c>
-      <c r="G21" s="98">
+      <c r="G21" s="52">
         <v>1622.4</v>
       </c>
-      <c r="H21" s="98">
+      <c r="H21" s="52">
         <f>G21*C21</f>
         <v>1622.4</v>
       </c>
-      <c r="I21" s="98">
+      <c r="I21" s="52">
         <f>H21+F21</f>
         <v>48672</v>
       </c>
@@ -4849,77 +4887,77 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="72">
+      <c r="A22" s="41">
         <v>3</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="100">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="54">
         <v>0</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100">
+      <c r="F22" s="54"/>
+      <c r="G22" s="54">
         <v>0</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="L22" s="14"/>
       <c r="M22" s="1"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="85">
+      <c r="A23" s="48">
         <v>3.1</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="100">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="54">
         <v>0</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100">
+      <c r="F23" s="54"/>
+      <c r="G23" s="54">
         <v>0</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="L23" s="14"/>
       <c r="M23" s="1"/>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="43">
         <v>1</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="52">
         <v>13222.56</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="52">
         <f t="shared" ref="F24:F27" si="6">E24*C24</f>
         <v>13222.56</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="52">
         <v>811.2</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H24" s="52">
         <f t="shared" ref="H24:H27" si="7">G24*C24</f>
         <v>811.2</v>
       </c>
-      <c r="I24" s="98">
+      <c r="I24" s="52">
         <f t="shared" ref="I24:I27" si="8">H24+F24</f>
         <v>14033.76</v>
       </c>
@@ -4928,33 +4966,33 @@
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="43">
         <v>1</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="52">
         <v>13384.8</v>
       </c>
-      <c r="F25" s="98">
+      <c r="F25" s="52">
         <f t="shared" si="6"/>
         <v>13384.8</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="52">
         <v>811.2</v>
       </c>
-      <c r="H25" s="98">
+      <c r="H25" s="52">
         <f t="shared" si="7"/>
         <v>811.2</v>
       </c>
-      <c r="I25" s="98">
+      <c r="I25" s="52">
         <f t="shared" si="8"/>
         <v>14196</v>
       </c>
@@ -4963,33 +5001,33 @@
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="43">
         <v>1</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="52">
         <v>14196</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="52">
         <f t="shared" si="6"/>
         <v>14196</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="52">
         <v>811.2</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="52">
         <f t="shared" si="7"/>
         <v>811.2</v>
       </c>
-      <c r="I26" s="98">
+      <c r="I26" s="52">
         <f t="shared" si="8"/>
         <v>15007.2</v>
       </c>
@@ -4998,33 +5036,33 @@
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="43">
         <v>3</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="52">
         <v>14317.68</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="52">
         <f t="shared" si="6"/>
         <v>42953.04</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="52">
         <v>811.2</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="52">
         <f t="shared" si="7"/>
         <v>2433.6000000000004</v>
       </c>
-      <c r="I27" s="98">
+      <c r="I27" s="52">
         <f t="shared" si="8"/>
         <v>45386.64</v>
       </c>
@@ -5033,55 +5071,55 @@
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="85">
+      <c r="A28" s="48">
         <v>3.2</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="100">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="54">
         <v>0</v>
       </c>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100">
+      <c r="F28" s="54"/>
+      <c r="G28" s="54">
         <v>0</v>
       </c>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
       <c r="L28" s="14"/>
       <c r="M28" s="1"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="43">
         <v>1</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="52">
         <v>16629.599999999999</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="52">
         <f t="shared" ref="F29:F36" si="9">E29*C29</f>
         <v>16629.599999999999</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="52">
         <v>811.2</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="52">
         <f t="shared" ref="H29:H36" si="10">G29*C29</f>
         <v>811.2</v>
       </c>
-      <c r="I29" s="98">
+      <c r="I29" s="52">
         <f t="shared" ref="I29:I36" si="11">H29+F29</f>
         <v>17440.8</v>
       </c>
@@ -5090,33 +5128,33 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="43">
         <v>1</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="98">
+      <c r="E30" s="52">
         <v>17238</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="52">
         <f t="shared" si="9"/>
         <v>17238</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="52">
         <v>811.2</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="52">
         <f t="shared" si="10"/>
         <v>811.2</v>
       </c>
-      <c r="I30" s="98">
+      <c r="I30" s="52">
         <f t="shared" si="11"/>
         <v>18049.2</v>
       </c>
@@ -5125,33 +5163,33 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="43">
         <v>1</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="52">
         <v>18026.486400000002</v>
       </c>
-      <c r="F31" s="98">
+      <c r="F31" s="52">
         <f t="shared" si="9"/>
         <v>18026.486400000002</v>
       </c>
-      <c r="G31" s="98">
+      <c r="G31" s="52">
         <v>811.2</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="52">
         <f t="shared" si="10"/>
         <v>811.2</v>
       </c>
-      <c r="I31" s="98">
+      <c r="I31" s="52">
         <f t="shared" si="11"/>
         <v>18837.686400000002</v>
       </c>
@@ -5160,29 +5198,29 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="85">
+      <c r="A32" s="48">
         <v>3.3</v>
       </c>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="98">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="52">
         <v>0</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="52">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="52">
         <v>0</v>
       </c>
-      <c r="H32" s="98">
+      <c r="H32" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I32" s="98">
+      <c r="I32" s="52">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5191,33 +5229,33 @@
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="43">
         <v>13</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="52">
         <v>4867.2</v>
       </c>
-      <c r="F33" s="98">
+      <c r="F33" s="52">
         <f t="shared" si="9"/>
         <v>63273.599999999999</v>
       </c>
-      <c r="G33" s="98">
+      <c r="G33" s="52">
         <v>1216.8</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="52">
         <f t="shared" si="10"/>
         <v>15818.4</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="52">
         <f t="shared" si="11"/>
         <v>79092</v>
       </c>
@@ -5226,33 +5264,33 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="43">
         <v>12</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="52">
         <v>5070</v>
       </c>
-      <c r="F34" s="98">
+      <c r="F34" s="52">
         <f t="shared" si="9"/>
         <v>60840</v>
       </c>
-      <c r="G34" s="98">
+      <c r="G34" s="52">
         <v>405.6</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="52">
         <f t="shared" si="10"/>
         <v>4867.2000000000007</v>
       </c>
-      <c r="I34" s="98">
+      <c r="I34" s="52">
         <f t="shared" si="11"/>
         <v>65707.199999999997</v>
       </c>
@@ -5261,33 +5299,33 @@
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="43">
         <v>3</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="98">
+      <c r="E35" s="52">
         <v>5272.8</v>
       </c>
-      <c r="F35" s="98">
+      <c r="F35" s="52">
         <f t="shared" si="9"/>
         <v>15818.400000000001</v>
       </c>
-      <c r="G35" s="98">
+      <c r="G35" s="52">
         <v>405.6</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="52">
         <f t="shared" si="10"/>
         <v>1216.8000000000002</v>
       </c>
-      <c r="I35" s="98">
+      <c r="I35" s="52">
         <f t="shared" si="11"/>
         <v>17035.2</v>
       </c>
@@ -5296,33 +5334,33 @@
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="43">
         <v>1</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="98">
+      <c r="E36" s="52">
         <v>5840.64</v>
       </c>
-      <c r="F36" s="98">
+      <c r="F36" s="52">
         <f t="shared" si="9"/>
         <v>5840.64</v>
       </c>
-      <c r="G36" s="98">
+      <c r="G36" s="52">
         <v>405.6</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="52">
         <f t="shared" si="10"/>
         <v>405.6</v>
       </c>
-      <c r="I36" s="98">
+      <c r="I36" s="52">
         <f t="shared" si="11"/>
         <v>6246.2400000000007</v>
       </c>
@@ -5331,65 +5369,65 @@
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
       <c r="L37" s="14"/>
       <c r="M37" s="1"/>
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
       <c r="L38" s="14"/>
       <c r="M38" s="1"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="1:14" s="8" customFormat="1" ht="131.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="72">
+    <row r="39" spans="1:14" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="41">
         <v>1</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="43">
         <v>1</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E39" s="52">
         <v>16224</v>
       </c>
-      <c r="F39" s="98">
+      <c r="F39" s="52">
         <f>E39*C39</f>
         <v>16224</v>
       </c>
-      <c r="G39" s="98">
+      <c r="G39" s="52">
         <v>6489.6</v>
       </c>
-      <c r="H39" s="98">
+      <c r="H39" s="52">
         <f>G39*C39</f>
         <v>6489.6</v>
       </c>
-      <c r="I39" s="98">
+      <c r="I39" s="52">
         <f>H39+F39</f>
         <v>22713.599999999999</v>
       </c>
@@ -5398,65 +5436,65 @@
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
       <c r="L40" s="14"/>
       <c r="M40" s="1"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
       <c r="L41" s="14"/>
       <c r="M41" s="1"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="72">
+      <c r="A42" s="41">
         <v>1</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="43">
         <v>1</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="98">
+      <c r="E42" s="52">
         <v>8112</v>
       </c>
-      <c r="F42" s="98">
+      <c r="F42" s="52">
         <f t="shared" ref="F42:F46" si="12">E42*C42</f>
         <v>8112</v>
       </c>
-      <c r="G42" s="98">
+      <c r="G42" s="52">
         <v>8112</v>
       </c>
-      <c r="H42" s="98">
+      <c r="H42" s="52">
         <f t="shared" ref="H42:H46" si="13">G42*C42</f>
         <v>8112</v>
       </c>
-      <c r="I42" s="98">
+      <c r="I42" s="52">
         <f t="shared" ref="I42:I46" si="14">H42+F42</f>
         <v>16224</v>
       </c>
@@ -5465,33 +5503,33 @@
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="72">
+      <c r="A43" s="41">
         <v>2</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="43">
         <v>1</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="98">
+      <c r="E43" s="52">
         <v>8112</v>
       </c>
-      <c r="F43" s="98">
+      <c r="F43" s="52">
         <f t="shared" si="12"/>
         <v>8112</v>
       </c>
-      <c r="G43" s="98">
+      <c r="G43" s="52">
         <v>12168</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="52">
         <f t="shared" si="13"/>
         <v>12168</v>
       </c>
-      <c r="I43" s="98">
+      <c r="I43" s="52">
         <f t="shared" si="14"/>
         <v>20280</v>
       </c>
@@ -5500,33 +5538,33 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="72">
+      <c r="A44" s="41">
         <v>3</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="43">
         <v>1</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="98">
+      <c r="E44" s="52">
         <v>36504</v>
       </c>
-      <c r="F44" s="98">
+      <c r="F44" s="52">
         <f t="shared" si="12"/>
         <v>36504</v>
       </c>
-      <c r="G44" s="98">
+      <c r="G44" s="52">
         <v>44616</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="52">
         <f t="shared" si="13"/>
         <v>44616</v>
       </c>
-      <c r="I44" s="98">
+      <c r="I44" s="52">
         <f t="shared" si="14"/>
         <v>81120</v>
       </c>
@@ -5534,34 +5572,34 @@
       <c r="M44" s="1"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="72">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="41">
         <v>4</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="43">
         <v>1</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="98">
+      <c r="E45" s="52">
         <v>12168</v>
       </c>
-      <c r="F45" s="98">
+      <c r="F45" s="52">
         <f t="shared" si="12"/>
         <v>12168</v>
       </c>
-      <c r="G45" s="98">
+      <c r="G45" s="52">
         <v>16224</v>
       </c>
-      <c r="H45" s="98">
+      <c r="H45" s="52">
         <f t="shared" si="13"/>
         <v>16224</v>
       </c>
-      <c r="I45" s="98">
+      <c r="I45" s="52">
         <f t="shared" si="14"/>
         <v>28392</v>
       </c>
@@ -5569,32 +5607,32 @@
       <c r="M45" s="1"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="72">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="41">
         <v>5</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="43">
         <v>1</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98">
+      <c r="E46" s="52"/>
+      <c r="F46" s="52">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G46" s="98">
+      <c r="G46" s="52">
         <v>0</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="52">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I46" s="98">
+      <c r="I46" s="52">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -5603,53 +5641,53 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
       <c r="L47" s="14"/>
       <c r="M47" s="1"/>
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="92"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="103"/>
       <c r="L48" s="14"/>
       <c r="M48" s="1"/>
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="96">
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="50">
         <f>SUM(F4:F46)</f>
         <v>1685139.8304000001</v>
       </c>
-      <c r="G49" s="97"/>
-      <c r="H49" s="96">
+      <c r="G49" s="51"/>
+      <c r="H49" s="50">
         <f>SUM(H4:H46)</f>
         <v>365040</v>
       </c>
-      <c r="I49" s="96">
+      <c r="I49" s="50">
         <f>SUM(I4:I46)</f>
         <v>2050179.8303999999</v>
       </c>
@@ -5710,13 +5748,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
@@ -5729,6 +5760,13 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>

--- a/Running projects/Sana Safinaz Dolmen Mall Lahore/Discounted BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
+++ b/Running projects/Sana Safinaz Dolmen Mall Lahore/Discounted BOQ of HVAC & Fire Work_ Sana Safinaz,DML,Lahore..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Sana Safinaz Dolmen Mall Lahore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5AD01F-420A-4C78-A175-F7F74DD556D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD21D33A-7F4B-47FC-AF14-D296896597E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="138">
   <si>
     <t>S. No.</t>
   </si>
@@ -1656,7 +1656,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Mob 20%</t>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Remaining</t>
   </si>
 </sst>
 </file>
@@ -2163,6 +2166,57 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,50 +2244,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2255,66 +2318,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2624,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2647,39 +2650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="80"/>
+      <c r="G2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="63"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2691,10 +2694,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2712,19 +2715,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:14" ht="189.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="172.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -2774,12 +2777,12 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -2789,12 +2792,12 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
@@ -3361,12 +3364,12 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -3376,12 +3379,12 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -3918,12 +3921,12 @@
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -3933,12 +3936,12 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -4152,12 +4155,12 @@
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="62"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -4165,23 +4168,23 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:14" ht="7.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="73"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="75"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="34"/>
       <c r="F59" s="35">
         <f>SUM(F5:F56)</f>
@@ -4246,13 +4249,10 @@
     </row>
     <row r="68" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G68" s="9"/>
-      <c r="H68" s="104" t="s">
+      <c r="H68" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I68" s="105">
-        <f>I66*20%</f>
-        <v>1560000</v>
-      </c>
+      <c r="I68" s="56"/>
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="7:12" x14ac:dyDescent="0.2">
@@ -4261,6 +4261,9 @@
     </row>
     <row r="70" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G70" s="9"/>
+      <c r="H70" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="71" spans="7:12" x14ac:dyDescent="0.2">
       <c r="L71" s="11"/>
@@ -4270,16 +4273,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:I58"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -4287,6 +4280,16 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4320,39 +4323,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="85"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
@@ -4364,10 +4367,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="6" t="s">
         <v>50</v>
       </c>
@@ -4385,12 +4388,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4468,12 +4471,12 @@
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -4484,12 +4487,12 @@
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -4570,12 +4573,12 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -4586,12 +4589,12 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
@@ -5369,12 +5372,12 @@
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="92" t="s">
+      <c r="A37" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -5385,12 +5388,12 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -5436,12 +5439,12 @@
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="92" t="s">
+      <c r="A40" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="94"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -5452,12 +5455,12 @@
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -5641,12 +5644,12 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="100"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="95"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
@@ -5657,26 +5660,26 @@
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="103"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="98"/>
       <c r="L48" s="14"/>
       <c r="M48" s="1"/>
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="86" t="s">
+      <c r="A49" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="45"/>
       <c r="F49" s="50">
         <f>SUM(F4:F46)</f>
@@ -5748,6 +5751,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A7:D7"/>
@@ -5760,13 +5770,6 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
